--- a/src/main/resources/tab2.xlsx
+++ b/src/main/resources/tab2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5BF264-C375-4A13-B659-E8AF73798945}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C527A1-78DA-46B6-BD3E-8A43E95952B3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1930" uniqueCount="902">
   <si>
     <t>Registration status</t>
   </si>
@@ -1350,6 +1350,1389 @@
   </si>
   <si>
     <t xml:space="preserve"> имя и фамилия</t>
+  </si>
+  <si>
+    <t>Alena</t>
+  </si>
+  <si>
+    <t>Svirina</t>
+  </si>
+  <si>
+    <t>Aleksandr</t>
+  </si>
+  <si>
+    <t>Kononov</t>
+  </si>
+  <si>
+    <t>Baranova</t>
+  </si>
+  <si>
+    <t>Svetlana</t>
+  </si>
+  <si>
+    <t>Zakharkin</t>
+  </si>
+  <si>
+    <t>Kozlov</t>
+  </si>
+  <si>
+    <t>Sharonov</t>
+  </si>
+  <si>
+    <t>Aleksei</t>
+  </si>
+  <si>
+    <t>Kalinin</t>
+  </si>
+  <si>
+    <t>Platon</t>
+  </si>
+  <si>
+    <t>Razumnov</t>
+  </si>
+  <si>
+    <t>Shchelkunov</t>
+  </si>
+  <si>
+    <t>Tormyshev</t>
+  </si>
+  <si>
+    <t>Nikolai</t>
+  </si>
+  <si>
+    <t>Shemonaev</t>
+  </si>
+  <si>
+    <t>Shustov</t>
+  </si>
+  <si>
+    <t>Shelest</t>
+  </si>
+  <si>
+    <t>Pavel</t>
+  </si>
+  <si>
+    <t>Agafonov</t>
+  </si>
+  <si>
+    <t>Anastasiia</t>
+  </si>
+  <si>
+    <t>Bykova</t>
+  </si>
+  <si>
+    <t>Mironova</t>
+  </si>
+  <si>
+    <t>Andrei</t>
+  </si>
+  <si>
+    <t>Zakharov</t>
+  </si>
+  <si>
+    <t>Ivchenko</t>
+  </si>
+  <si>
+    <t>Orlov</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Eremina</t>
+  </si>
+  <si>
+    <t>Alexey</t>
+  </si>
+  <si>
+    <t>Kuznetsov</t>
+  </si>
+  <si>
+    <t>Anton</t>
+  </si>
+  <si>
+    <t>Pronkin</t>
+  </si>
+  <si>
+    <t>Zhukov</t>
+  </si>
+  <si>
+    <t>Ushakova</t>
+  </si>
+  <si>
+    <t>Anzhelika</t>
+  </si>
+  <si>
+    <t>Shchetkin</t>
+  </si>
+  <si>
+    <t>Epifanov</t>
+  </si>
+  <si>
+    <t>Artem</t>
+  </si>
+  <si>
+    <t>Nesterkov</t>
+  </si>
+  <si>
+    <t>Sidorov</t>
+  </si>
+  <si>
+    <t>Mushkaev</t>
+  </si>
+  <si>
+    <t>Bella</t>
+  </si>
+  <si>
+    <t>Turmanova</t>
+  </si>
+  <si>
+    <t>Daniil</t>
+  </si>
+  <si>
+    <t>Aksenov</t>
+  </si>
+  <si>
+    <t>Trofimov</t>
+  </si>
+  <si>
+    <t>Ilia</t>
+  </si>
+  <si>
+    <t>Denis</t>
+  </si>
+  <si>
+    <t>Totoev</t>
+  </si>
+  <si>
+    <t>Soboleva</t>
+  </si>
+  <si>
+    <t>Dina</t>
+  </si>
+  <si>
+    <t>Ponomareva</t>
+  </si>
+  <si>
+    <t>Dmitrii</t>
+  </si>
+  <si>
+    <t>Bushuev</t>
+  </si>
+  <si>
+    <t>Gonchar</t>
+  </si>
+  <si>
+    <t>Aust</t>
+  </si>
+  <si>
+    <t>Finiakin</t>
+  </si>
+  <si>
+    <t>Gavrilov</t>
+  </si>
+  <si>
+    <t>Grigorovich</t>
+  </si>
+  <si>
+    <t>Dmitry</t>
+  </si>
+  <si>
+    <t>Plotnikov</t>
+  </si>
+  <si>
+    <t>Ekaterina</t>
+  </si>
+  <si>
+    <t>Sviatkina</t>
+  </si>
+  <si>
+    <t>Elena</t>
+  </si>
+  <si>
+    <t>Zhdankina</t>
+  </si>
+  <si>
+    <t>Elizaveta</t>
+  </si>
+  <si>
+    <t>Romankova</t>
+  </si>
+  <si>
+    <t>Emil</t>
+  </si>
+  <si>
+    <t>Khisaev</t>
+  </si>
+  <si>
+    <t>Evgenia</t>
+  </si>
+  <si>
+    <t>Pritula</t>
+  </si>
+  <si>
+    <t>Morozova</t>
+  </si>
+  <si>
+    <t>Evgenii</t>
+  </si>
+  <si>
+    <t>Bykov</t>
+  </si>
+  <si>
+    <t>Mrykhin</t>
+  </si>
+  <si>
+    <t>Maksiutov</t>
+  </si>
+  <si>
+    <t>Filipp</t>
+  </si>
+  <si>
+    <t>Viktor</t>
+  </si>
+  <si>
+    <t>Danchenko</t>
+  </si>
+  <si>
+    <t>Gleb</t>
+  </si>
+  <si>
+    <t>Nikonorov</t>
+  </si>
+  <si>
+    <t>Timofei</t>
+  </si>
+  <si>
+    <t>Nazarkin</t>
+  </si>
+  <si>
+    <t>Vaniukov</t>
+  </si>
+  <si>
+    <t>Konev</t>
+  </si>
+  <si>
+    <t>Mukaseeva</t>
+  </si>
+  <si>
+    <t>Irina</t>
+  </si>
+  <si>
+    <t>Ivan</t>
+  </si>
+  <si>
+    <t>Iason</t>
+  </si>
+  <si>
+    <t>Lysakov</t>
+  </si>
+  <si>
+    <t>Gusev</t>
+  </si>
+  <si>
+    <t>Maksim</t>
+  </si>
+  <si>
+    <t>Nazarov</t>
+  </si>
+  <si>
+    <t>Iuliia</t>
+  </si>
+  <si>
+    <t>Leonteva</t>
+  </si>
+  <si>
+    <t>Goleniaev</t>
+  </si>
+  <si>
+    <t>Karpunin</t>
+  </si>
+  <si>
+    <t>Kirill</t>
+  </si>
+  <si>
+    <t>Aseev</t>
+  </si>
+  <si>
+    <t>Sergei</t>
+  </si>
+  <si>
+    <t>Klimkin</t>
+  </si>
+  <si>
+    <t>Konstsntin</t>
+  </si>
+  <si>
+    <t>Kriutchenko</t>
+  </si>
+  <si>
+    <t>Viktoriia</t>
+  </si>
+  <si>
+    <t>Ashaeva</t>
+  </si>
+  <si>
+    <t>Gubankova</t>
+  </si>
+  <si>
+    <t>Daria</t>
+  </si>
+  <si>
+    <t>Dubtsova</t>
+  </si>
+  <si>
+    <t>Melnikova</t>
+  </si>
+  <si>
+    <t>Margarita</t>
+  </si>
+  <si>
+    <t>Zenina</t>
+  </si>
+  <si>
+    <t>Gribova</t>
+  </si>
+  <si>
+    <t>Mariia</t>
+  </si>
+  <si>
+    <t>Kuznetsova</t>
+  </si>
+  <si>
+    <t>Iurkevich</t>
+  </si>
+  <si>
+    <t>Ivakina</t>
+  </si>
+  <si>
+    <t>Marina</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>Nagaev</t>
+  </si>
+  <si>
+    <t>Astakhov</t>
+  </si>
+  <si>
+    <t>Elmanov</t>
+  </si>
+  <si>
+    <t>Astashkin</t>
+  </si>
+  <si>
+    <t>Voronin</t>
+  </si>
+  <si>
+    <t>Golovin</t>
+  </si>
+  <si>
+    <t>Mikhail</t>
+  </si>
+  <si>
+    <t>Mirokhin</t>
+  </si>
+  <si>
+    <t>Stroilov</t>
+  </si>
+  <si>
+    <t>Nadezhda</t>
+  </si>
+  <si>
+    <t>Volkova</t>
+  </si>
+  <si>
+    <t>Pronicheva</t>
+  </si>
+  <si>
+    <t>Shchukina</t>
+  </si>
+  <si>
+    <t>Nataliia</t>
+  </si>
+  <si>
+    <t>Alieva</t>
+  </si>
+  <si>
+    <t>Diana</t>
+  </si>
+  <si>
+    <t>Natalya</t>
+  </si>
+  <si>
+    <t>Shenteryakova</t>
+  </si>
+  <si>
+    <t>Nikita</t>
+  </si>
+  <si>
+    <t>Iakovlev</t>
+  </si>
+  <si>
+    <t>Sergienko</t>
+  </si>
+  <si>
+    <t>Vasilev</t>
+  </si>
+  <si>
+    <t>Zubkov</t>
+  </si>
+  <si>
+    <t>Nikitin</t>
+  </si>
+  <si>
+    <t>Olga</t>
+  </si>
+  <si>
+    <t>Koroleva</t>
+  </si>
+  <si>
+    <t>Levshin</t>
+  </si>
+  <si>
+    <t>Makovetskaia</t>
+  </si>
+  <si>
+    <t>Doronin</t>
+  </si>
+  <si>
+    <t>Sergeechkina</t>
+  </si>
+  <si>
+    <t>Smirnova</t>
+  </si>
+  <si>
+    <t>Panaetis</t>
+  </si>
+  <si>
+    <t>Nikolov</t>
+  </si>
+  <si>
+    <t>Atanov</t>
+  </si>
+  <si>
+    <t>Guskov</t>
+  </si>
+  <si>
+    <t>Kireev</t>
+  </si>
+  <si>
+    <t>Lovtsov</t>
+  </si>
+  <si>
+    <t>Panin</t>
+  </si>
+  <si>
+    <t>Lovkin</t>
+  </si>
+  <si>
+    <t>Fateeva</t>
+  </si>
+  <si>
+    <t>Polina</t>
+  </si>
+  <si>
+    <t>Tatarinov</t>
+  </si>
+  <si>
+    <t>Tatiana</t>
+  </si>
+  <si>
+    <t>Birulia</t>
+  </si>
+  <si>
+    <t>Vladimir</t>
+  </si>
+  <si>
+    <t>Udartsev</t>
+  </si>
+  <si>
+    <t>Gerasimov</t>
+  </si>
+  <si>
+    <t>Roman</t>
+  </si>
+  <si>
+    <t>Izrantsev</t>
+  </si>
+  <si>
+    <t>Lozovskoi</t>
+  </si>
+  <si>
+    <t>Shenteriakov</t>
+  </si>
+  <si>
+    <t>Oleg</t>
+  </si>
+  <si>
+    <t>Ponomarev</t>
+  </si>
+  <si>
+    <t>Vladislav</t>
+  </si>
+  <si>
+    <t>Cherenkov</t>
+  </si>
+  <si>
+    <t>Panenkov</t>
+  </si>
+  <si>
+    <t>Igor</t>
+  </si>
+  <si>
+    <t>Suchugov</t>
+  </si>
+  <si>
+    <t>Paniushkina</t>
+  </si>
+  <si>
+    <t>Sofia</t>
+  </si>
+  <si>
+    <t>Sushkov</t>
+  </si>
+  <si>
+    <t>Panina</t>
+  </si>
+  <si>
+    <t>Khriukova</t>
+  </si>
+  <si>
+    <t>Kuleshova</t>
+  </si>
+  <si>
+    <t>Grasina</t>
+  </si>
+  <si>
+    <t>Savosina</t>
+  </si>
+  <si>
+    <t>Manukhova</t>
+  </si>
+  <si>
+    <t>Shigina</t>
+  </si>
+  <si>
+    <t>Provodina</t>
+  </si>
+  <si>
+    <t>Fedor</t>
+  </si>
+  <si>
+    <t>Aladyshev</t>
+  </si>
+  <si>
+    <t>Fediaeva</t>
+  </si>
+  <si>
+    <t>Stepan</t>
+  </si>
+  <si>
+    <t>Kaziatko</t>
+  </si>
+  <si>
+    <t>Valeriia</t>
+  </si>
+  <si>
+    <t>Kusova</t>
+  </si>
+  <si>
+    <t>Vasilii</t>
+  </si>
+  <si>
+    <t>Prokofev</t>
+  </si>
+  <si>
+    <t>Sablina</t>
+  </si>
+  <si>
+    <t>Noskova</t>
+  </si>
+  <si>
+    <t>Anikeev</t>
+  </si>
+  <si>
+    <t>Egor</t>
+  </si>
+  <si>
+    <t>Kiriukhin</t>
+  </si>
+  <si>
+    <t>Polunin</t>
+  </si>
+  <si>
+    <t>Zaitsev</t>
+  </si>
+  <si>
+    <t>Zakhartsev</t>
+  </si>
+  <si>
+    <t>Chugreev</t>
+  </si>
+  <si>
+    <t>Komarov</t>
+  </si>
+  <si>
+    <t>Koldaev</t>
+  </si>
+  <si>
+    <t>Kazak</t>
+  </si>
+  <si>
+    <t>Proskuriakov</t>
+  </si>
+  <si>
+    <t>Iaroslav</t>
+  </si>
+  <si>
+    <t>Artemov</t>
+  </si>
+  <si>
+    <t>Yaroslav</t>
+  </si>
+  <si>
+    <t>Pereguda</t>
+  </si>
+  <si>
+    <t>Akimov</t>
+  </si>
+  <si>
+    <t>Aleksandra</t>
+  </si>
+  <si>
+    <t>Maslikova</t>
+  </si>
+  <si>
+    <t>Pershina</t>
+  </si>
+  <si>
+    <t>Asoskov</t>
+  </si>
+  <si>
+    <t>Bastrychkin</t>
+  </si>
+  <si>
+    <t>Gorkin</t>
+  </si>
+  <si>
+    <t>Kondratov</t>
+  </si>
+  <si>
+    <t>Zinkov</t>
+  </si>
+  <si>
+    <t>Mamonov</t>
+  </si>
+  <si>
+    <t>Morozov</t>
+  </si>
+  <si>
+    <t>Samoilov</t>
+  </si>
+  <si>
+    <t>Solovev</t>
+  </si>
+  <si>
+    <t>Starshinin</t>
+  </si>
+  <si>
+    <t>Titov</t>
+  </si>
+  <si>
+    <t>Shtrinev</t>
+  </si>
+  <si>
+    <t>Kseniia</t>
+  </si>
+  <si>
+    <t>Khromova</t>
+  </si>
+  <si>
+    <t>Antoshin</t>
+  </si>
+  <si>
+    <t>Lanich</t>
+  </si>
+  <si>
+    <t>Liudmila</t>
+  </si>
+  <si>
+    <t>Sorokoumov</t>
+  </si>
+  <si>
+    <t>Golikov</t>
+  </si>
+  <si>
+    <t>Khokhlov</t>
+  </si>
+  <si>
+    <t>Roslik</t>
+  </si>
+  <si>
+    <t>Aleksandrova</t>
+  </si>
+  <si>
+    <t>Sevostianova</t>
+  </si>
+  <si>
+    <t>Alina</t>
+  </si>
+  <si>
+    <t>Briukhnova</t>
+  </si>
+  <si>
+    <t>Bulgakova</t>
+  </si>
+  <si>
+    <t>Albina</t>
+  </si>
+  <si>
+    <t>Kalinina</t>
+  </si>
+  <si>
+    <t>Zhuravleva</t>
+  </si>
+  <si>
+    <t>Zakharova</t>
+  </si>
+  <si>
+    <t>Ivanova</t>
+  </si>
+  <si>
+    <t>Kiriukhina</t>
+  </si>
+  <si>
+    <t>Kozeeva</t>
+  </si>
+  <si>
+    <t>Prokofeva</t>
+  </si>
+  <si>
+    <t>Tsoi</t>
+  </si>
+  <si>
+    <t>Iaroslavtseva</t>
+  </si>
+  <si>
+    <t>Angelina</t>
+  </si>
+  <si>
+    <t>Viugina</t>
+  </si>
+  <si>
+    <t>Kulichkina</t>
+  </si>
+  <si>
+    <t>Kravchenko</t>
+  </si>
+  <si>
+    <t>Latakhin</t>
+  </si>
+  <si>
+    <t>Matras</t>
+  </si>
+  <si>
+    <t>Mikhailova</t>
+  </si>
+  <si>
+    <t>Rumiantseva</t>
+  </si>
+  <si>
+    <t>Lidiia</t>
+  </si>
+  <si>
+    <t>Mushkaeva</t>
+  </si>
+  <si>
+    <t>Kashirin</t>
+  </si>
+  <si>
+    <t>Tokarev</t>
+  </si>
+  <si>
+    <t>Kharlashkin</t>
+  </si>
+  <si>
+    <t>Bukhtina</t>
+  </si>
+  <si>
+    <t>Arsenii</t>
+  </si>
+  <si>
+    <t>Beliusov</t>
+  </si>
+  <si>
+    <t>Natalia</t>
+  </si>
+  <si>
+    <t>Potapova</t>
+  </si>
+  <si>
+    <t>Semin</t>
+  </si>
+  <si>
+    <t>Artur</t>
+  </si>
+  <si>
+    <t>Aleksaniants</t>
+  </si>
+  <si>
+    <t>Vadim</t>
+  </si>
+  <si>
+    <t>Tumanov</t>
+  </si>
+  <si>
+    <t>Minin</t>
+  </si>
+  <si>
+    <t>Shalukhina</t>
+  </si>
+  <si>
+    <t>Grivin</t>
+  </si>
+  <si>
+    <t>Vera</t>
+  </si>
+  <si>
+    <t>Reshetova</t>
+  </si>
+  <si>
+    <t>Polikashina</t>
+  </si>
+  <si>
+    <t>Vasin</t>
+  </si>
+  <si>
+    <t>Vitalii</t>
+  </si>
+  <si>
+    <t>Ermilov</t>
+  </si>
+  <si>
+    <t>Lushnikov</t>
+  </si>
+  <si>
+    <t>Nesterov</t>
+  </si>
+  <si>
+    <t>Eliseev</t>
+  </si>
+  <si>
+    <t>Tolstykh</t>
+  </si>
+  <si>
+    <t>Lotsmanova</t>
+  </si>
+  <si>
+    <t>Ognev</t>
+  </si>
+  <si>
+    <t>Bokarev</t>
+  </si>
+  <si>
+    <t>Viacheslav</t>
+  </si>
+  <si>
+    <t>Shmonov</t>
+  </si>
+  <si>
+    <t>Georgii</t>
+  </si>
+  <si>
+    <t>Medvedev</t>
+  </si>
+  <si>
+    <t>Grigorii</t>
+  </si>
+  <si>
+    <t>Lonin</t>
+  </si>
+  <si>
+    <t>Romanenko</t>
+  </si>
+  <si>
+    <t>Logvinenko</t>
+  </si>
+  <si>
+    <t>Sofiia</t>
+  </si>
+  <si>
+    <t>Senina</t>
+  </si>
+  <si>
+    <t>Bakonin</t>
+  </si>
+  <si>
+    <t>Gureev</t>
+  </si>
+  <si>
+    <t>Postnikov</t>
+  </si>
+  <si>
+    <t>Ratnikov</t>
+  </si>
+  <si>
+    <t>Sadovskii</t>
+  </si>
+  <si>
+    <t>Samokhin</t>
+  </si>
+  <si>
+    <t>Barsukov</t>
+  </si>
+  <si>
+    <t>Zelenov</t>
+  </si>
+  <si>
+    <t>Kuzmin</t>
+  </si>
+  <si>
+    <t>Murugov</t>
+  </si>
+  <si>
+    <t>Pokoevets</t>
+  </si>
+  <si>
+    <t>Simonov</t>
+  </si>
+  <si>
+    <t>Johnnie</t>
+  </si>
+  <si>
+    <t>Walker</t>
+  </si>
+  <si>
+    <t>Shaposhnikov</t>
+  </si>
+  <si>
+    <t>Eremenok</t>
+  </si>
+  <si>
+    <t>Lukinskii</t>
+  </si>
+  <si>
+    <t>Kholopov</t>
+  </si>
+  <si>
+    <t>Kitae</t>
+  </si>
+  <si>
+    <t>Kabanova</t>
+  </si>
+  <si>
+    <t>Kulagina</t>
+  </si>
+  <si>
+    <t>Chernousova</t>
+  </si>
+  <si>
+    <t>Sapfirova</t>
+  </si>
+  <si>
+    <t>Telegin</t>
+  </si>
+  <si>
+    <t>Zimin</t>
+  </si>
+  <si>
+    <t>Mavrin</t>
+  </si>
+  <si>
+    <t>Tyrnov</t>
+  </si>
+  <si>
+    <t>Rogozhkin</t>
+  </si>
+  <si>
+    <t>Tsepliaev</t>
+  </si>
+  <si>
+    <t>Lebedev</t>
+  </si>
+  <si>
+    <t>Voroshilin</t>
+  </si>
+  <si>
+    <t>Pustograev</t>
+  </si>
+  <si>
+    <t>Silichev</t>
+  </si>
+  <si>
+    <t>Karpekina</t>
+  </si>
+  <si>
+    <t>Vazhinskii</t>
+  </si>
+  <si>
+    <t>Shcherbachenko</t>
+  </si>
+  <si>
+    <t>Kalina</t>
+  </si>
+  <si>
+    <t>Basyrova</t>
+  </si>
+  <si>
+    <t>Kosenko</t>
+  </si>
+  <si>
+    <t>Katerina</t>
+  </si>
+  <si>
+    <t>Kuzina</t>
+  </si>
+  <si>
+    <t>Afonin</t>
+  </si>
+  <si>
+    <t>Chadakin</t>
+  </si>
+  <si>
+    <t>Shishkin</t>
+  </si>
+  <si>
+    <t>Shichkin</t>
+  </si>
+  <si>
+    <t>Shirinia</t>
+  </si>
+  <si>
+    <t>Shmelev</t>
+  </si>
+  <si>
+    <t>Gromova</t>
+  </si>
+  <si>
+    <t>Chaplina</t>
+  </si>
+  <si>
+    <t>Shumak</t>
+  </si>
+  <si>
+    <t>Epifantsev</t>
+  </si>
+  <si>
+    <t>Khosenko</t>
+  </si>
+  <si>
+    <t>Rozhko</t>
+  </si>
+  <si>
+    <t>Maiia</t>
+  </si>
+  <si>
+    <t>Krygina</t>
+  </si>
+  <si>
+    <t>Gorelov</t>
+  </si>
+  <si>
+    <t>Lashchilin</t>
+  </si>
+  <si>
+    <t>Shilova</t>
+  </si>
+  <si>
+    <t>Remizov</t>
+  </si>
+  <si>
+    <t>Riumin</t>
+  </si>
+  <si>
+    <t>Samorukov</t>
+  </si>
+  <si>
+    <t>Tishininov</t>
+  </si>
+  <si>
+    <t>Filkin</t>
+  </si>
+  <si>
+    <t>Shchetinin</t>
+  </si>
+  <si>
+    <t>Checheneva</t>
+  </si>
+  <si>
+    <t>Gukina</t>
+  </si>
+  <si>
+    <t>Denisova</t>
+  </si>
+  <si>
+    <t>Sviridova</t>
+  </si>
+  <si>
+    <t>Dorokhin</t>
+  </si>
+  <si>
+    <t>Lyulin</t>
+  </si>
+  <si>
+    <t>Korolev</t>
+  </si>
+  <si>
+    <t>Diakonov</t>
+  </si>
+  <si>
+    <t>Vishniakova</t>
+  </si>
+  <si>
+    <t>Rebizov</t>
+  </si>
+  <si>
+    <t>Petrovskaia</t>
+  </si>
+  <si>
+    <t>Sharipov</t>
+  </si>
+  <si>
+    <t>Korolkova</t>
+  </si>
+  <si>
+    <t>Shenteriakova</t>
+  </si>
+  <si>
+    <t>Iatsenia</t>
+  </si>
+  <si>
+    <t>Klimchuk</t>
+  </si>
+  <si>
+    <t>Stanislav</t>
+  </si>
+  <si>
+    <t>Trushin</t>
+  </si>
+  <si>
+    <t>Nizhegorodtsev</t>
+  </si>
+  <si>
+    <t>Kulikov</t>
+  </si>
+  <si>
+    <t>Markin</t>
+  </si>
+  <si>
+    <t>Minaev</t>
+  </si>
+  <si>
+    <t>Smirnykh</t>
+  </si>
+  <si>
+    <t>Chuvikova</t>
+  </si>
+  <si>
+    <t>Nina</t>
+  </si>
+  <si>
+    <t>Oksana</t>
+  </si>
+  <si>
+    <t>Bardina</t>
+  </si>
+  <si>
+    <t>Spirkina</t>
+  </si>
+  <si>
+    <t>Tikhonova</t>
+  </si>
+  <si>
+    <t>Olesia</t>
+  </si>
+  <si>
+    <t>Loganova</t>
+  </si>
+  <si>
+    <t>Mishkova</t>
+  </si>
+  <si>
+    <t>Popova</t>
+  </si>
+  <si>
+    <t>Tsybizov</t>
+  </si>
+  <si>
+    <t>Gadzhiev</t>
+  </si>
+  <si>
+    <t>Khrekov</t>
+  </si>
+  <si>
+    <t>Dukova</t>
+  </si>
+  <si>
+    <t>Baldin</t>
+  </si>
+  <si>
+    <t>Klindzhev</t>
+  </si>
+  <si>
+    <t>Goriachev</t>
+  </si>
+  <si>
+    <t>Kopeikin</t>
+  </si>
+  <si>
+    <t>Barinova</t>
+  </si>
+  <si>
+    <t>Zakharina</t>
+  </si>
+  <si>
+    <t>Semen</t>
+  </si>
+  <si>
+    <t>Amelkin</t>
+  </si>
+  <si>
+    <t>Semchishkin</t>
+  </si>
+  <si>
+    <t>Fulin</t>
+  </si>
+  <si>
+    <t>Sichinava</t>
+  </si>
+  <si>
+    <t>Vakhtang</t>
+  </si>
+  <si>
+    <t>Draznin</t>
+  </si>
+  <si>
+    <t>Erokhin</t>
+  </si>
+  <si>
+    <t>Ovsiannikov</t>
+  </si>
+  <si>
+    <t>Pasichnikov</t>
+  </si>
+  <si>
+    <t>Turbin</t>
+  </si>
+  <si>
+    <t>Pravkin</t>
+  </si>
+  <si>
+    <t>Buklanova</t>
+  </si>
+  <si>
+    <t>Kratenko</t>
+  </si>
+  <si>
+    <t>Sinitsyn</t>
+  </si>
+  <si>
+    <t>Poltavtsev</t>
+  </si>
+  <si>
+    <t>Valentin</t>
+  </si>
+  <si>
+    <t>Gorbachev</t>
+  </si>
+  <si>
+    <t>Lukieianchuk</t>
+  </si>
+  <si>
+    <t>Maslov</t>
+  </si>
+  <si>
+    <t>Zasimova</t>
+  </si>
+  <si>
+    <t>Dekhtereva</t>
+  </si>
+  <si>
+    <t>Zotov</t>
+  </si>
+  <si>
+    <t>Pogasii</t>
+  </si>
+  <si>
+    <t>Gorbatova</t>
+  </si>
+  <si>
+    <t>Miadziuta</t>
+  </si>
+  <si>
+    <t>Iurii</t>
+  </si>
+  <si>
+    <t>Bashkirev</t>
+  </si>
+  <si>
+    <t>Iana</t>
+  </si>
+  <si>
+    <t>Levina</t>
+  </si>
+  <si>
+    <t>Zhavoronkov</t>
+  </si>
+  <si>
+    <t>Ilia (Trofimov Il'ya)</t>
+  </si>
+  <si>
+    <t>Evgeniia Valerevna</t>
+  </si>
+  <si>
+    <t>Elizaveta Vladimirovna</t>
+  </si>
+  <si>
+    <t>Mikhail Iurevich</t>
+  </si>
+  <si>
+    <t>Irina Vadimovna</t>
+  </si>
+  <si>
+    <t>Viktoriia Aleksandrovna</t>
+  </si>
+  <si>
+    <t>Aleksandr Aleksandrovich</t>
+  </si>
+  <si>
+    <t>Iuliia Sergeevna</t>
+  </si>
+  <si>
+    <t>Alisa Viktorovna</t>
+  </si>
+  <si>
+    <t>Anna Viktorovna</t>
+  </si>
+  <si>
+    <t>Anton Sergeevich</t>
+  </si>
+  <si>
+    <t>Dmitrii Andreevich</t>
+  </si>
+  <si>
+    <t>Dmitrii Igorevich</t>
+  </si>
+  <si>
+    <t>Elena Vasilevna</t>
+  </si>
+  <si>
+    <t>Anton Aleksandrovich</t>
+  </si>
+  <si>
+    <t>Valerii Nikolaevich</t>
+  </si>
+  <si>
+    <t>Renat Mirzeagaevich</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Name1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Name2</t>
   </si>
 </sst>
 </file>
@@ -1691,19 +3074,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E364"/>
+  <dimension ref="A1:G364"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="32.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" customWidth="1"/>
+    <col min="1" max="5" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" customWidth="1"/>
+    <col min="7" max="7" width="38.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1719,8 +3103,14 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1737,8 +3127,14 @@
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="28" x14ac:dyDescent="0.35">
+      <c r="F2" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="G2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1755,8 +3151,14 @@
       <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F3" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="G3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1773,8 +3175,14 @@
       <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F4" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="G4" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -1791,8 +3199,14 @@
       <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F5" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="G5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1809,8 +3223,14 @@
       <c r="E6" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F6" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="G6" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -1827,8 +3247,14 @@
       <c r="E7" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F7" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="G7" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -1845,8 +3271,14 @@
       <c r="E8" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F8" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="G8" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
@@ -1863,8 +3295,14 @@
       <c r="E9" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F9" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="G9" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1881,8 +3319,14 @@
       <c r="E10" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F10" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="G10" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -1899,8 +3343,14 @@
       <c r="E11" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F11" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="G11" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
@@ -1917,8 +3367,14 @@
       <c r="E12" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F12" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="G12" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>4</v>
       </c>
@@ -1935,8 +3391,14 @@
       <c r="E13" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F13" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="G13" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1953,8 +3415,14 @@
       <c r="E14" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F14" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="G14" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1971,8 +3439,14 @@
       <c r="E15" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F15" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="G15" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>4</v>
       </c>
@@ -1989,8 +3463,14 @@
       <c r="E16" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F16" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="G16" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>4</v>
       </c>
@@ -2007,8 +3487,14 @@
       <c r="E17" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F17" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="G17" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>4</v>
       </c>
@@ -2025,8 +3511,14 @@
       <c r="E18" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F18" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="G18" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>4</v>
       </c>
@@ -2043,8 +3535,14 @@
       <c r="E19" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F19" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="G19" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>4</v>
       </c>
@@ -2061,8 +3559,14 @@
       <c r="E20" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F20" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="G20" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>4</v>
       </c>
@@ -2079,8 +3583,14 @@
       <c r="E21" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F21" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="G21" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>4</v>
       </c>
@@ -2097,8 +3607,14 @@
       <c r="E22" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F22" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="G22" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>10</v>
       </c>
@@ -2115,8 +3631,14 @@
       <c r="E23" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F23" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G23" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>4</v>
       </c>
@@ -2133,8 +3655,14 @@
       <c r="E24" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F24" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="G24" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>4</v>
       </c>
@@ -2151,8 +3679,14 @@
       <c r="E25" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F25" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="G25" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>4</v>
       </c>
@@ -2169,8 +3703,14 @@
       <c r="E26" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F26" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G26" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>4</v>
       </c>
@@ -2187,8 +3727,14 @@
       <c r="E27" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F27" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="G27" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>4</v>
       </c>
@@ -2205,8 +3751,14 @@
       <c r="E28" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F28" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="G28" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>4</v>
       </c>
@@ -2223,8 +3775,14 @@
       <c r="E29" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F29" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="G29" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>10</v>
       </c>
@@ -2241,8 +3799,14 @@
       <c r="E30" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F30" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="G30" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>10</v>
       </c>
@@ -2259,8 +3823,14 @@
       <c r="E31" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F31" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="G31" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>4</v>
       </c>
@@ -2277,8 +3847,14 @@
       <c r="E32" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F32" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="G32" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>4</v>
       </c>
@@ -2295,8 +3871,14 @@
       <c r="E33" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F33" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="G33" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>4</v>
       </c>
@@ -2313,8 +3895,14 @@
       <c r="E34" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F34" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="G34" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>10</v>
       </c>
@@ -2331,8 +3919,14 @@
       <c r="E35" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F35" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="G35" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>4</v>
       </c>
@@ -2349,8 +3943,14 @@
       <c r="E36" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F36" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="G36" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>4</v>
       </c>
@@ -2367,8 +3967,14 @@
       <c r="E37" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F37" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="G37" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>4</v>
       </c>
@@ -2385,8 +3991,14 @@
       <c r="E38" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F38" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="G38" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>4</v>
       </c>
@@ -2403,8 +4015,14 @@
       <c r="E39" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F39" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="G39" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>4</v>
       </c>
@@ -2421,8 +4039,14 @@
       <c r="E40" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F40" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="G40" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>10</v>
       </c>
@@ -2439,8 +4063,14 @@
       <c r="E41" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F41" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="G41" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2457,8 +4087,14 @@
       <c r="E42" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F42" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="G42" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>10</v>
       </c>
@@ -2475,8 +4111,14 @@
       <c r="E43" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F43" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="G43" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2493,8 +4135,14 @@
       <c r="E44" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F44" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="G44" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2511,8 +4159,14 @@
       <c r="E45" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F45" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="G45" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>4</v>
       </c>
@@ -2529,8 +4183,14 @@
       <c r="E46" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F46" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="G46" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2547,8 +4207,14 @@
       <c r="E47" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F47" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="G47" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2565,8 +4231,14 @@
       <c r="E48" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F48" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="G48" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2583,8 +4255,14 @@
       <c r="E49" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F49" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="G49" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>4</v>
       </c>
@@ -2601,8 +4279,14 @@
       <c r="E50" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F50" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="G50" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>10</v>
       </c>
@@ -2619,8 +4303,14 @@
       <c r="E51" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F51" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="G51" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2637,8 +4327,14 @@
       <c r="E52" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F52" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="G52" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>4</v>
       </c>
@@ -2655,8 +4351,14 @@
       <c r="E53" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F53" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="G53" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>10</v>
       </c>
@@ -2673,8 +4375,14 @@
       <c r="E54" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F54" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="G54" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>4</v>
       </c>
@@ -2691,8 +4399,14 @@
       <c r="E55" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F55" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="G55" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>4</v>
       </c>
@@ -2709,8 +4423,14 @@
       <c r="E56" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F56" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G56" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2727,8 +4447,14 @@
       <c r="E57" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F57" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="G57" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2745,8 +4471,14 @@
       <c r="E58" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F58" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="G58" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>4</v>
       </c>
@@ -2763,8 +4495,14 @@
       <c r="E59" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F59" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="G59" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>4</v>
       </c>
@@ -2781,8 +4519,14 @@
       <c r="E60" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F60" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="G60" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>4</v>
       </c>
@@ -2799,8 +4543,14 @@
       <c r="E61" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F61" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="G61" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>4</v>
       </c>
@@ -2817,8 +4567,14 @@
       <c r="E62" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F62" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="G62" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>4</v>
       </c>
@@ -2835,8 +4591,14 @@
       <c r="E63" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F63" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="G63" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>4</v>
       </c>
@@ -2853,8 +4615,14 @@
       <c r="E64" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F64" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="G64" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>4</v>
       </c>
@@ -2871,8 +4639,14 @@
       <c r="E65" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F65" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="G65" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>10</v>
       </c>
@@ -2889,8 +4663,14 @@
       <c r="E66" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F66" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="G66" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>4</v>
       </c>
@@ -2907,8 +4687,14 @@
       <c r="E67" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F67" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="G67" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>10</v>
       </c>
@@ -2925,8 +4711,11 @@
       <c r="E68" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F68" s="2" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>4</v>
       </c>
@@ -2943,8 +4732,14 @@
       <c r="E69" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F69" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="G69" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>4</v>
       </c>
@@ -2961,8 +4756,14 @@
       <c r="E70" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F70" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="G70" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>10</v>
       </c>
@@ -2979,8 +4780,14 @@
       <c r="E71" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F71" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="G71" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>4</v>
       </c>
@@ -2997,8 +4804,14 @@
       <c r="E72" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F72" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="G72" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>10</v>
       </c>
@@ -3015,8 +4828,14 @@
       <c r="E73" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F73" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="G73" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>4</v>
       </c>
@@ -3033,8 +4852,14 @@
       <c r="E74" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="F74" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="G74" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>4</v>
       </c>
@@ -3051,8 +4876,14 @@
       <c r="E75" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F75" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="G75" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>4</v>
       </c>
@@ -3069,8 +4900,14 @@
       <c r="E76" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F76" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="G76" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>4</v>
       </c>
@@ -3087,8 +4924,14 @@
       <c r="E77" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F77" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="G77" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>4</v>
       </c>
@@ -3105,8 +4948,14 @@
       <c r="E78" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F78" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="G78" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>10</v>
       </c>
@@ -3123,8 +4972,14 @@
       <c r="E79" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F79" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="G79" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>4</v>
       </c>
@@ -3141,8 +4996,14 @@
       <c r="E80" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F80" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="G80" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>4</v>
       </c>
@@ -3159,8 +5020,14 @@
       <c r="E81" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F81" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="G81" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>4</v>
       </c>
@@ -3177,8 +5044,14 @@
       <c r="E82" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F82" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="G82" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>4</v>
       </c>
@@ -3195,8 +5068,14 @@
       <c r="E83" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F83" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="G83" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>4</v>
       </c>
@@ -3213,8 +5092,14 @@
       <c r="E84" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F84" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="G84" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>4</v>
       </c>
@@ -3231,8 +5116,14 @@
       <c r="E85" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F85" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="G85" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>4</v>
       </c>
@@ -3249,8 +5140,14 @@
       <c r="E86" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F86" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="G86" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>4</v>
       </c>
@@ -3267,8 +5164,14 @@
       <c r="E87" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F87" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="G87" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>4</v>
       </c>
@@ -3285,8 +5188,14 @@
       <c r="E88" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F88" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="G88" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>10</v>
       </c>
@@ -3303,8 +5212,14 @@
       <c r="E89" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F89" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="G89" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>4</v>
       </c>
@@ -3321,8 +5236,14 @@
       <c r="E90" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F90" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="G90" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>10</v>
       </c>
@@ -3339,8 +5260,14 @@
       <c r="E91" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F91" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="G91" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>4</v>
       </c>
@@ -3357,8 +5284,14 @@
       <c r="E92" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F92" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="G92" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>10</v>
       </c>
@@ -3375,8 +5308,14 @@
       <c r="E93" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F93" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="G93" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>4</v>
       </c>
@@ -3393,8 +5332,14 @@
       <c r="E94" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F94" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="G94" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>4</v>
       </c>
@@ -3411,8 +5356,14 @@
       <c r="E95" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F95" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="G95" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>4</v>
       </c>
@@ -3429,8 +5380,14 @@
       <c r="E96" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" ht="28" x14ac:dyDescent="0.35">
+      <c r="F96" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="G96" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>4</v>
       </c>
@@ -3447,8 +5404,14 @@
       <c r="E97" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F97" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="G97" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>4</v>
       </c>
@@ -3465,8 +5428,14 @@
       <c r="E98" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F98" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="G98" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>4</v>
       </c>
@@ -3483,8 +5452,14 @@
       <c r="E99" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F99" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="G99" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>4</v>
       </c>
@@ -3501,8 +5476,14 @@
       <c r="E100" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F100" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="G100" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>4</v>
       </c>
@@ -3519,8 +5500,14 @@
       <c r="E101" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F101" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="G101" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>10</v>
       </c>
@@ -3537,8 +5524,14 @@
       <c r="E102" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F102" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="G102" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>4</v>
       </c>
@@ -3555,8 +5548,14 @@
       <c r="E103" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F103" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="G103" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>4</v>
       </c>
@@ -3573,8 +5572,14 @@
       <c r="E104" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F104" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="G104" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>10</v>
       </c>
@@ -3591,8 +5596,14 @@
       <c r="E105" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F105" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="G105" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>4</v>
       </c>
@@ -3609,8 +5620,14 @@
       <c r="E106" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F106" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="G106" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>10</v>
       </c>
@@ -3627,8 +5644,11 @@
       <c r="E107" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F107" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>4</v>
       </c>
@@ -3645,8 +5665,14 @@
       <c r="E108" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F108" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="G108" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>4</v>
       </c>
@@ -3663,8 +5689,14 @@
       <c r="E109" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F109" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="G109" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>4</v>
       </c>
@@ -3681,8 +5713,14 @@
       <c r="E110" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F110" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="G110" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>10</v>
       </c>
@@ -3699,8 +5737,14 @@
       <c r="E111" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F111" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="G111" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>4</v>
       </c>
@@ -3717,8 +5761,14 @@
       <c r="E112" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F112" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="G112" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>4</v>
       </c>
@@ -3735,8 +5785,14 @@
       <c r="E113" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F113" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="G113" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>4</v>
       </c>
@@ -3753,8 +5809,14 @@
       <c r="E114" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F114" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="G114" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>4</v>
       </c>
@@ -3771,8 +5833,14 @@
       <c r="E115" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F115" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="G115" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>4</v>
       </c>
@@ -3789,8 +5857,14 @@
       <c r="E116" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F116" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="G116" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>10</v>
       </c>
@@ -3807,8 +5881,14 @@
       <c r="E117" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F117" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="G117" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>4</v>
       </c>
@@ -3825,8 +5905,14 @@
       <c r="E118" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F118" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="G118" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>4</v>
       </c>
@@ -3843,8 +5929,14 @@
       <c r="E119" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F119" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="G119" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>4</v>
       </c>
@@ -3861,8 +5953,14 @@
       <c r="E120" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F120" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="G120" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>4</v>
       </c>
@@ -3879,8 +5977,14 @@
       <c r="E121" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F121" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="G121" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>4</v>
       </c>
@@ -3897,8 +6001,14 @@
       <c r="E122" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F122" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="G122" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>4</v>
       </c>
@@ -3915,8 +6025,14 @@
       <c r="E123" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F123" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="G123" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>4</v>
       </c>
@@ -3933,8 +6049,14 @@
       <c r="E124" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F124" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="G124" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>4</v>
       </c>
@@ -3951,8 +6073,14 @@
       <c r="E125" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F125" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="G125" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>4</v>
       </c>
@@ -3969,8 +6097,14 @@
       <c r="E126" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F126" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="G126" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>4</v>
       </c>
@@ -3987,8 +6121,14 @@
       <c r="E127" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F127" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="G127" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>4</v>
       </c>
@@ -4005,8 +6145,14 @@
       <c r="E128" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F128" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="G128" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>4</v>
       </c>
@@ -4023,8 +6169,14 @@
       <c r="E129" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F129" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="G129" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>4</v>
       </c>
@@ -4041,8 +6193,14 @@
       <c r="E130" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F130" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="G130" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>4</v>
       </c>
@@ -4059,8 +6217,14 @@
       <c r="E131" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F131" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="G131" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>4</v>
       </c>
@@ -4077,8 +6241,14 @@
       <c r="E132" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F132" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="G132" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>4</v>
       </c>
@@ -4095,8 +6265,14 @@
       <c r="E133" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F133" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="G133" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>4</v>
       </c>
@@ -4113,8 +6289,14 @@
       <c r="E134" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F134" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="G134" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>4</v>
       </c>
@@ -4131,8 +6313,14 @@
       <c r="E135" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F135" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="G135" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>4</v>
       </c>
@@ -4149,8 +6337,14 @@
       <c r="E136" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F136" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="G136" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>10</v>
       </c>
@@ -4167,8 +6361,14 @@
       <c r="E137" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F137" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="G137" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>4</v>
       </c>
@@ -4185,8 +6385,14 @@
       <c r="E138" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F138" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="G138" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>4</v>
       </c>
@@ -4203,8 +6409,14 @@
       <c r="E139" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F139" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="G139" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>4</v>
       </c>
@@ -4221,8 +6433,14 @@
       <c r="E140" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F140" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="G140" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>4</v>
       </c>
@@ -4239,8 +6457,14 @@
       <c r="E141" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F141" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="G141" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>10</v>
       </c>
@@ -4257,8 +6481,14 @@
       <c r="E142" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F142" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="G142" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>10</v>
       </c>
@@ -4275,8 +6505,14 @@
       <c r="E143" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F143" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="G143" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>4</v>
       </c>
@@ -4293,8 +6529,14 @@
       <c r="E144" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F144" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="G144" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>4</v>
       </c>
@@ -4311,8 +6553,14 @@
       <c r="E145" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F145" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="G145" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>4</v>
       </c>
@@ -4329,8 +6577,14 @@
       <c r="E146" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F146" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="G146" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>4</v>
       </c>
@@ -4347,8 +6601,14 @@
       <c r="E147" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F147" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="G147" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>4</v>
       </c>
@@ -4365,8 +6625,14 @@
       <c r="E148" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F148" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="G148" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>10</v>
       </c>
@@ -4383,8 +6649,14 @@
       <c r="E149" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F149" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="G149" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>4</v>
       </c>
@@ -4401,8 +6673,14 @@
       <c r="E150" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F150" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="G150" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>10</v>
       </c>
@@ -4419,8 +6697,14 @@
       <c r="E151" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F151" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="G151" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>4</v>
       </c>
@@ -4437,8 +6721,14 @@
       <c r="E152" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F152" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="G152" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>4</v>
       </c>
@@ -4455,8 +6745,14 @@
       <c r="E153" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F153" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="G153" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>4</v>
       </c>
@@ -4473,8 +6769,14 @@
       <c r="E154" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F154" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="G154" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>4</v>
       </c>
@@ -4491,8 +6793,14 @@
       <c r="E155" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F155" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="G155" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>4</v>
       </c>
@@ -4509,8 +6817,14 @@
       <c r="E156" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F156" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="G156" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>4</v>
       </c>
@@ -4527,8 +6841,14 @@
       <c r="E157" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F157" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="G157" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>4</v>
       </c>
@@ -4545,8 +6865,14 @@
       <c r="E158" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F158" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="G158" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>4</v>
       </c>
@@ -4563,8 +6889,14 @@
       <c r="E159" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F159" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="G159" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>10</v>
       </c>
@@ -4581,8 +6913,14 @@
       <c r="E160" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F160" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="G160" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>4</v>
       </c>
@@ -4599,8 +6937,14 @@
       <c r="E161" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F161" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="G161" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>4</v>
       </c>
@@ -4617,8 +6961,14 @@
       <c r="E162" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F162" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="G162" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>4</v>
       </c>
@@ -4635,8 +6985,14 @@
       <c r="E163" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F163" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="G163" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>4</v>
       </c>
@@ -4653,8 +7009,14 @@
       <c r="E164" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F164" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="G164" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>10</v>
       </c>
@@ -4671,8 +7033,14 @@
       <c r="E165" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F165" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="G165" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>4</v>
       </c>
@@ -4689,8 +7057,14 @@
       <c r="E166" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="F166" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="G166" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>4</v>
       </c>
@@ -4707,8 +7081,14 @@
       <c r="E167" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F167" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="G167" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>4</v>
       </c>
@@ -4725,8 +7105,14 @@
       <c r="E168" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F168" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="G168" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>4</v>
       </c>
@@ -4743,8 +7129,14 @@
       <c r="E169" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F169" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="G169" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>4</v>
       </c>
@@ -4761,8 +7153,14 @@
       <c r="E170" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F170" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="G170" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>4</v>
       </c>
@@ -4779,8 +7177,14 @@
       <c r="E171" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F171" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="G171" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>4</v>
       </c>
@@ -4797,8 +7201,14 @@
       <c r="E172" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F172" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="G172" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>4</v>
       </c>
@@ -4815,8 +7225,14 @@
       <c r="E173" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F173" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="G173" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>4</v>
       </c>
@@ -4833,8 +7249,14 @@
       <c r="E174" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" ht="28" x14ac:dyDescent="0.35">
+      <c r="F174" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="G174" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>4</v>
       </c>
@@ -4851,8 +7273,14 @@
       <c r="E175" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F175" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="G175" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>10</v>
       </c>
@@ -4869,8 +7297,14 @@
       <c r="E176" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F176" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="G176" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>10</v>
       </c>
@@ -4887,8 +7321,11 @@
       <c r="E177" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F177" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>4</v>
       </c>
@@ -4905,8 +7342,14 @@
       <c r="E178" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F178" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="G178" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>4</v>
       </c>
@@ -4923,8 +7366,14 @@
       <c r="E179" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F179" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="G179" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>4</v>
       </c>
@@ -4941,8 +7390,14 @@
       <c r="E180" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F180" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="G180" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>4</v>
       </c>
@@ -4959,8 +7414,14 @@
       <c r="E181" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F181" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="G181" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>4</v>
       </c>
@@ -4977,8 +7438,14 @@
       <c r="E182" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F182" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="G182" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>10</v>
       </c>
@@ -4995,8 +7462,14 @@
       <c r="E183" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F183" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="G183" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>4</v>
       </c>
@@ -5013,8 +7486,14 @@
       <c r="E184" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F184" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="G184" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>4</v>
       </c>
@@ -5031,8 +7510,14 @@
       <c r="E185" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F185" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="G185" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>4</v>
       </c>
@@ -5049,8 +7534,14 @@
       <c r="E186" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F186" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="G186" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>10</v>
       </c>
@@ -5067,8 +7558,14 @@
       <c r="E187" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F187" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="G187" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>4</v>
       </c>
@@ -5085,8 +7582,14 @@
       <c r="E188" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="F188" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="G188" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>4</v>
       </c>
@@ -5103,8 +7606,14 @@
       <c r="E189" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F189" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="G189" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>4</v>
       </c>
@@ -5121,8 +7630,14 @@
       <c r="E190" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F190" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="G190" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>4</v>
       </c>
@@ -5139,8 +7654,14 @@
       <c r="E191" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F191" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="G191" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>4</v>
       </c>
@@ -5157,8 +7678,14 @@
       <c r="E192" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F192" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="G192" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>4</v>
       </c>
@@ -5175,8 +7702,14 @@
       <c r="E193" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F193" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="G193" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>4</v>
       </c>
@@ -5193,8 +7726,14 @@
       <c r="E194" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F194" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="G194" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>4</v>
       </c>
@@ -5211,8 +7750,11 @@
       <c r="E195" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F195" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>4</v>
       </c>
@@ -5229,8 +7771,14 @@
       <c r="E196" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F196" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="G196" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>4</v>
       </c>
@@ -5247,8 +7795,14 @@
       <c r="E197" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F197" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="G197" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>4</v>
       </c>
@@ -5265,8 +7819,14 @@
       <c r="E198" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F198" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="G198" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>4</v>
       </c>
@@ -5283,8 +7843,14 @@
       <c r="E199" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F199" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="G199" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>4</v>
       </c>
@@ -5301,8 +7867,14 @@
       <c r="E200" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F200" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="G200" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>10</v>
       </c>
@@ -5319,8 +7891,14 @@
       <c r="E201" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F201" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="G201" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>4</v>
       </c>
@@ -5337,8 +7915,14 @@
       <c r="E202" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F202" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="G202" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>10</v>
       </c>
@@ -5355,8 +7939,14 @@
       <c r="E203" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F203" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="G203" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>4</v>
       </c>
@@ -5373,8 +7963,14 @@
       <c r="E204" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F204" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="G204" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>4</v>
       </c>
@@ -5391,8 +7987,14 @@
       <c r="E205" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F205" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="G205" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>4</v>
       </c>
@@ -5409,8 +8011,14 @@
       <c r="E206" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F206" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="G206" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>4</v>
       </c>
@@ -5427,8 +8035,14 @@
       <c r="E207" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F207" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="G207" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>4</v>
       </c>
@@ -5445,8 +8059,14 @@
       <c r="E208" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F208" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="G208" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>4</v>
       </c>
@@ -5463,8 +8083,14 @@
       <c r="E209" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F209" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="G209" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>10</v>
       </c>
@@ -5481,8 +8107,14 @@
       <c r="E210" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F210" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="G210" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
         <v>4</v>
       </c>
@@ -5499,8 +8131,14 @@
       <c r="E211" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F211" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="G211" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>4</v>
       </c>
@@ -5517,8 +8155,14 @@
       <c r="E212" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F212" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="G212" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>4</v>
       </c>
@@ -5535,8 +8179,14 @@
       <c r="E213" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F213" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="G213" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>4</v>
       </c>
@@ -5553,8 +8203,14 @@
       <c r="E214" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F214" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="G214" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
         <v>4</v>
       </c>
@@ -5571,8 +8227,14 @@
       <c r="E215" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F215" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="G215" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
         <v>4</v>
       </c>
@@ -5589,8 +8251,14 @@
       <c r="E216" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F216" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="G216" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
         <v>4</v>
       </c>
@@ -5607,8 +8275,14 @@
       <c r="E217" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F217" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="G217" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>10</v>
       </c>
@@ -5625,8 +8299,14 @@
       <c r="E218" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F218" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="G218" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>4</v>
       </c>
@@ -5643,8 +8323,14 @@
       <c r="E219" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F219" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="G219" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
         <v>4</v>
       </c>
@@ -5661,8 +8347,14 @@
       <c r="E220" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F220" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="G220" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
         <v>4</v>
       </c>
@@ -5679,8 +8371,14 @@
       <c r="E221" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F221" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="G221" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
         <v>4</v>
       </c>
@@ -5697,8 +8395,14 @@
       <c r="E222" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F222" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="G222" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
         <v>4</v>
       </c>
@@ -5715,8 +8419,14 @@
       <c r="E223" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F223" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="G223" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
         <v>4</v>
       </c>
@@ -5733,8 +8443,14 @@
       <c r="E224" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F224" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="G224" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>4</v>
       </c>
@@ -5751,8 +8467,14 @@
       <c r="E225" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F225" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="G225" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>4</v>
       </c>
@@ -5769,8 +8491,14 @@
       <c r="E226" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F226" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="G226" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
         <v>4</v>
       </c>
@@ -5787,8 +8515,14 @@
       <c r="E227" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F227" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="G227" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
         <v>4</v>
       </c>
@@ -5805,8 +8539,14 @@
       <c r="E228" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F228" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="G228" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
         <v>4</v>
       </c>
@@ -5823,8 +8563,14 @@
       <c r="E229" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F229" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="G229" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>10</v>
       </c>
@@ -5841,8 +8587,14 @@
       <c r="E230" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F230" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="G230" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>4</v>
       </c>
@@ -5859,8 +8611,14 @@
       <c r="E231" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F231" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="G231" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
         <v>4</v>
       </c>
@@ -5877,8 +8635,14 @@
       <c r="E232" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F232" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="G232" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
         <v>4</v>
       </c>
@@ -5895,8 +8659,14 @@
       <c r="E233" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F233" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="G233" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
         <v>4</v>
       </c>
@@ -5913,8 +8683,14 @@
       <c r="E234" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F234" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="G234" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
         <v>4</v>
       </c>
@@ -5931,8 +8707,14 @@
       <c r="E235" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F235" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="G235" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>4</v>
       </c>
@@ -5949,8 +8731,14 @@
       <c r="E236" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F236" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="G236" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>4</v>
       </c>
@@ -5967,8 +8755,14 @@
       <c r="E237" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F237" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="G237" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>4</v>
       </c>
@@ -5985,8 +8779,14 @@
       <c r="E238" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F238" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="G238" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
         <v>4</v>
       </c>
@@ -6003,8 +8803,14 @@
       <c r="E239" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F239" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="G239" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
         <v>4</v>
       </c>
@@ -6021,8 +8827,14 @@
       <c r="E240" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F240" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="G240" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
         <v>4</v>
       </c>
@@ -6039,8 +8851,14 @@
       <c r="E241" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F241" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="G241" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
         <v>4</v>
       </c>
@@ -6057,8 +8875,14 @@
       <c r="E242" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F242" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="G242" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
         <v>4</v>
       </c>
@@ -6075,8 +8899,14 @@
       <c r="E243" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F243" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="G243" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
         <v>4</v>
       </c>
@@ -6093,8 +8923,14 @@
       <c r="E244" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F244" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="G244" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
         <v>10</v>
       </c>
@@ -6111,8 +8947,14 @@
       <c r="E245" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F245" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="G245" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
         <v>4</v>
       </c>
@@ -6129,8 +8971,14 @@
       <c r="E246" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F246" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="G246" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
         <v>10</v>
       </c>
@@ -6147,8 +8995,14 @@
       <c r="E247" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F247" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="G247" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
         <v>4</v>
       </c>
@@ -6165,8 +9019,14 @@
       <c r="E248" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F248" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="G248" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
         <v>4</v>
       </c>
@@ -6183,8 +9043,14 @@
       <c r="E249" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F249" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="G249" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
         <v>4</v>
       </c>
@@ -6201,8 +9067,14 @@
       <c r="E250" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F250" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="G250" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
         <v>4</v>
       </c>
@@ -6219,8 +9091,14 @@
       <c r="E251" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F251" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="G251" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
         <v>4</v>
       </c>
@@ -6237,8 +9115,14 @@
       <c r="E252" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F252" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="G252" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
         <v>4</v>
       </c>
@@ -6255,8 +9139,14 @@
       <c r="E253" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F253" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="G253" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
         <v>4</v>
       </c>
@@ -6273,8 +9163,14 @@
       <c r="E254" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F254" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="G254" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
         <v>4</v>
       </c>
@@ -6291,8 +9187,14 @@
       <c r="E255" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F255" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="G255" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
         <v>10</v>
       </c>
@@ -6309,8 +9211,14 @@
       <c r="E256" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F256" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="G256" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
         <v>4</v>
       </c>
@@ -6327,8 +9235,14 @@
       <c r="E257" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F257" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="G257" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
         <v>4</v>
       </c>
@@ -6345,8 +9259,14 @@
       <c r="E258" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F258" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="G258" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
         <v>10</v>
       </c>
@@ -6363,8 +9283,14 @@
       <c r="E259" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F259" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="G259" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
         <v>4</v>
       </c>
@@ -6381,8 +9307,14 @@
       <c r="E260" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F260" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="G260" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
         <v>4</v>
       </c>
@@ -6399,8 +9331,14 @@
       <c r="E261" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F261" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="G261" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
         <v>10</v>
       </c>
@@ -6417,8 +9355,14 @@
       <c r="E262" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F262" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="G262" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
         <v>4</v>
       </c>
@@ -6435,8 +9379,14 @@
       <c r="E263" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F263" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="G263" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
         <v>4</v>
       </c>
@@ -6453,8 +9403,14 @@
       <c r="E264" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F264" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="G264" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
         <v>10</v>
       </c>
@@ -6471,8 +9427,14 @@
       <c r="E265" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F265" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="G265" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
         <v>4</v>
       </c>
@@ -6489,8 +9451,14 @@
       <c r="E266" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F266" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="G266" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
         <v>4</v>
       </c>
@@ -6507,8 +9475,14 @@
       <c r="E267" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F267" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="G267" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
         <v>4</v>
       </c>
@@ -6525,8 +9499,14 @@
       <c r="E268" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F268" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="G268" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
         <v>4</v>
       </c>
@@ -6543,8 +9523,14 @@
       <c r="E269" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F269" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="G269" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
         <v>4</v>
       </c>
@@ -6561,8 +9547,14 @@
       <c r="E270" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F270" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="G270" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
         <v>4</v>
       </c>
@@ -6579,8 +9571,14 @@
       <c r="E271" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F271" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="G271" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
         <v>4</v>
       </c>
@@ -6597,8 +9595,14 @@
       <c r="E272" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F272" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="G272" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
         <v>4</v>
       </c>
@@ -6615,8 +9619,14 @@
       <c r="E273" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F273" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="G273" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
         <v>4</v>
       </c>
@@ -6633,8 +9643,14 @@
       <c r="E274" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F274" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="G274" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
         <v>4</v>
       </c>
@@ -6651,8 +9667,14 @@
       <c r="E275" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F275" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="G275" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
         <v>4</v>
       </c>
@@ -6669,8 +9691,14 @@
       <c r="E276" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F276" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="G276" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
         <v>4</v>
       </c>
@@ -6687,8 +9715,14 @@
       <c r="E277" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F277" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="G277" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
         <v>4</v>
       </c>
@@ -6705,8 +9739,14 @@
       <c r="E278" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F278" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="G278" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
         <v>4</v>
       </c>
@@ -6723,8 +9763,14 @@
       <c r="E279" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F279" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="G279" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
         <v>10</v>
       </c>
@@ -6741,8 +9787,14 @@
       <c r="E280" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F280" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="G280" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
         <v>4</v>
       </c>
@@ -6759,8 +9811,14 @@
       <c r="E281" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F281" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="G281" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
         <v>4</v>
       </c>
@@ -6777,8 +9835,14 @@
       <c r="E282" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F282" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="G282" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
         <v>4</v>
       </c>
@@ -6795,8 +9859,14 @@
       <c r="E283" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F283" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="G283" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
         <v>4</v>
       </c>
@@ -6813,8 +9883,14 @@
       <c r="E284" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F284" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="G284" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
         <v>4</v>
       </c>
@@ -6831,8 +9907,14 @@
       <c r="E285" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F285" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="G285" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
         <v>4</v>
       </c>
@@ -6849,8 +9931,14 @@
       <c r="E286" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F286" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="G286" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
         <v>4</v>
       </c>
@@ -6867,8 +9955,14 @@
       <c r="E287" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F287" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="G287" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
         <v>4</v>
       </c>
@@ -6885,8 +9979,14 @@
       <c r="E288" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F288" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="G288" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
         <v>4</v>
       </c>
@@ -6903,8 +10003,14 @@
       <c r="E289" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F289" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="G289" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
         <v>4</v>
       </c>
@@ -6921,8 +10027,14 @@
       <c r="E290" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F290" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="G290" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
         <v>4</v>
       </c>
@@ -6939,8 +10051,14 @@
       <c r="E291" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F291" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="G291" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
         <v>4</v>
       </c>
@@ -6957,8 +10075,14 @@
       <c r="E292" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F292" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="G292" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
         <v>4</v>
       </c>
@@ -6975,8 +10099,14 @@
       <c r="E293" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F293" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="G293" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
         <v>4</v>
       </c>
@@ -6993,8 +10123,14 @@
       <c r="E294" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F294" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="G294" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
         <v>10</v>
       </c>
@@ -7011,8 +10147,14 @@
       <c r="E295" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F295" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="G295" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
         <v>4</v>
       </c>
@@ -7029,8 +10171,14 @@
       <c r="E296" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F296" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="G296" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
         <v>4</v>
       </c>
@@ -7047,8 +10195,14 @@
       <c r="E297" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F297" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="G297" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
         <v>4</v>
       </c>
@@ -7065,8 +10219,14 @@
       <c r="E298" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F298" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="G298" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
         <v>4</v>
       </c>
@@ -7083,8 +10243,14 @@
       <c r="E299" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F299" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="G299" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
         <v>10</v>
       </c>
@@ -7101,8 +10267,14 @@
       <c r="E300" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F300" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="G300" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
         <v>10</v>
       </c>
@@ -7119,8 +10291,14 @@
       <c r="E301" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F301" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="G301" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
         <v>4</v>
       </c>
@@ -7137,8 +10315,14 @@
       <c r="E302" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F302" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="G302" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
         <v>4</v>
       </c>
@@ -7155,8 +10339,14 @@
       <c r="E303" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F303" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="G303" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
         <v>4</v>
       </c>
@@ -7173,8 +10363,14 @@
       <c r="E304" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F304" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="G304" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
         <v>10</v>
       </c>
@@ -7191,8 +10387,14 @@
       <c r="E305" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F305" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="G305" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
         <v>4</v>
       </c>
@@ -7209,8 +10411,14 @@
       <c r="E306" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F306" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="G306" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
         <v>4</v>
       </c>
@@ -7227,8 +10435,14 @@
       <c r="E307" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F307" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="G307" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
         <v>4</v>
       </c>
@@ -7245,8 +10459,14 @@
       <c r="E308" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F308" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="G308" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
         <v>4</v>
       </c>
@@ -7263,8 +10483,14 @@
       <c r="E309" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F309" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="G309" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
         <v>10</v>
       </c>
@@ -7281,8 +10507,14 @@
       <c r="E310" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F310" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="G310" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
         <v>4</v>
       </c>
@@ -7299,8 +10531,14 @@
       <c r="E311" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F311" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="G311" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="s">
         <v>10</v>
       </c>
@@ -7317,8 +10555,14 @@
       <c r="E312" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F312" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="G312" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
         <v>4</v>
       </c>
@@ -7335,8 +10579,14 @@
       <c r="E313" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F313" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="G313" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
         <v>4</v>
       </c>
@@ -7353,8 +10603,14 @@
       <c r="E314" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F314" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="G314" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
         <v>4</v>
       </c>
@@ -7371,8 +10627,14 @@
       <c r="E315" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F315" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="G315" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
         <v>4</v>
       </c>
@@ -7389,8 +10651,14 @@
       <c r="E316" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F316" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="G316" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="3" t="s">
         <v>4</v>
       </c>
@@ -7407,8 +10675,14 @@
       <c r="E317" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F317" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="G317" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
         <v>4</v>
       </c>
@@ -7425,8 +10699,14 @@
       <c r="E318" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F318" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="G318" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="3" t="s">
         <v>10</v>
       </c>
@@ -7443,8 +10723,14 @@
       <c r="E319" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F319" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="G319" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="3" t="s">
         <v>4</v>
       </c>
@@ -7461,8 +10747,14 @@
       <c r="E320" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F320" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="G320" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="3" t="s">
         <v>4</v>
       </c>
@@ -7479,8 +10771,14 @@
       <c r="E321" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F321" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="G321" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="3" t="s">
         <v>4</v>
       </c>
@@ -7497,8 +10795,14 @@
       <c r="E322" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F322" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="G322" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="3" t="s">
         <v>4</v>
       </c>
@@ -7515,8 +10819,14 @@
       <c r="E323" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F323" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="G323" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="3" t="s">
         <v>4</v>
       </c>
@@ -7533,8 +10843,14 @@
       <c r="E324" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F324" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="G324" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="3" t="s">
         <v>4</v>
       </c>
@@ -7551,8 +10867,14 @@
       <c r="E325" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F325" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="G325" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="3" t="s">
         <v>4</v>
       </c>
@@ -7569,8 +10891,14 @@
       <c r="E326" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F326" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="G326" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="3" t="s">
         <v>4</v>
       </c>
@@ -7587,8 +10915,14 @@
       <c r="E327" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F327" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="G327" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="3" t="s">
         <v>4</v>
       </c>
@@ -7605,8 +10939,14 @@
       <c r="E328" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F328" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="G328" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="3" t="s">
         <v>4</v>
       </c>
@@ -7623,8 +10963,14 @@
       <c r="E329" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F329" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="G329" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="3" t="s">
         <v>4</v>
       </c>
@@ -7641,8 +10987,14 @@
       <c r="E330" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F330" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="G330" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="3" t="s">
         <v>4</v>
       </c>
@@ -7659,8 +11011,14 @@
       <c r="E331" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F331" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G331" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="3" t="s">
         <v>4</v>
       </c>
@@ -7677,8 +11035,14 @@
       <c r="E332" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F332" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="G332" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A333" s="3" t="s">
         <v>4</v>
       </c>
@@ -7695,8 +11059,14 @@
       <c r="E333" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F333" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="G333" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="3" t="s">
         <v>4</v>
       </c>
@@ -7713,8 +11083,14 @@
       <c r="E334" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F334" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="G334" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="3" t="s">
         <v>4</v>
       </c>
@@ -7731,8 +11107,14 @@
       <c r="E335" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F335" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="G335" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="3" t="s">
         <v>4</v>
       </c>
@@ -7749,8 +11131,14 @@
       <c r="E336" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F336" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="G336" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="3" t="s">
         <v>4</v>
       </c>
@@ -7767,8 +11155,14 @@
       <c r="E337" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F337" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="G337" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="3" t="s">
         <v>4</v>
       </c>
@@ -7785,8 +11179,14 @@
       <c r="E338" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F338" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="G338" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="3" t="s">
         <v>4</v>
       </c>
@@ -7803,8 +11203,14 @@
       <c r="E339" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F339" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="G339" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="3" t="s">
         <v>4</v>
       </c>
@@ -7821,8 +11227,14 @@
       <c r="E340" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F340" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="G340" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="3" t="s">
         <v>4</v>
       </c>
@@ -7839,8 +11251,14 @@
       <c r="E341" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F341" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="G341" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
         <v>4</v>
       </c>
@@ -7857,8 +11275,14 @@
       <c r="E342" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F342" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="G342" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="3" t="s">
         <v>4</v>
       </c>
@@ -7875,8 +11299,14 @@
       <c r="E343" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F343" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="G343" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="3" t="s">
         <v>4</v>
       </c>
@@ -7893,8 +11323,14 @@
       <c r="E344" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F344" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="G344" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="3" t="s">
         <v>4</v>
       </c>
@@ -7911,8 +11347,14 @@
       <c r="E345" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F345" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="G345" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="3" t="s">
         <v>4</v>
       </c>
@@ -7929,8 +11371,14 @@
       <c r="E346" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F346" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="G346" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="3" t="s">
         <v>4</v>
       </c>
@@ -7947,8 +11395,14 @@
       <c r="E347" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F347" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="G347" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="3" t="s">
         <v>4</v>
       </c>
@@ -7965,8 +11419,14 @@
       <c r="E348" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F348" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="G348" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="3" t="s">
         <v>4</v>
       </c>
@@ -7983,8 +11443,14 @@
       <c r="E349" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F349" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="G349" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="3" t="s">
         <v>4</v>
       </c>
@@ -8001,8 +11467,14 @@
       <c r="E350" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F350" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="G350" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="3" t="s">
         <v>4</v>
       </c>
@@ -8019,8 +11491,14 @@
       <c r="E351" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F351" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="G351" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="3" t="s">
         <v>10</v>
       </c>
@@ -8037,8 +11515,14 @@
       <c r="E352" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F352" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="G352" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="3" t="s">
         <v>4</v>
       </c>
@@ -8055,8 +11539,14 @@
       <c r="E353" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F353" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="G353" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="3" t="s">
         <v>4</v>
       </c>
@@ -8073,8 +11563,14 @@
       <c r="E354" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F354" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="G354" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="3" t="s">
         <v>4</v>
       </c>
@@ -8091,8 +11587,14 @@
       <c r="E355" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F355" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="G355" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="3" t="s">
         <v>4</v>
       </c>
@@ -8109,8 +11611,14 @@
       <c r="E356" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F356" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="G356" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="3" t="s">
         <v>4</v>
       </c>
@@ -8127,8 +11635,14 @@
       <c r="E357" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F357" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="G357" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="3" t="s">
         <v>4</v>
       </c>
@@ -8145,8 +11659,14 @@
       <c r="E358" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F358" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="G358" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="3" t="s">
         <v>10</v>
       </c>
@@ -8163,8 +11683,14 @@
       <c r="E359" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F359" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="G359" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="3" t="s">
         <v>4</v>
       </c>
@@ -8181,8 +11707,14 @@
       <c r="E360" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F360" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="G360" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="3" t="s">
         <v>4</v>
       </c>
@@ -8199,8 +11731,14 @@
       <c r="E361" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F361" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="G361" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="3" t="s">
         <v>4</v>
       </c>
@@ -8217,8 +11755,14 @@
       <c r="E362" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F362" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="G362" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="3" t="s">
         <v>4</v>
       </c>
@@ -8235,8 +11779,14 @@
       <c r="E363" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F363" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="G363" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="3" t="s">
         <v>4</v>
       </c>
@@ -8252,6 +11802,12 @@
       </c>
       <c r="E364" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="F364" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="G364" t="s">
+        <v>882</v>
       </c>
     </row>
   </sheetData>
